--- a/data/old_songs_data.xlsx
+++ b/data/old_songs_data.xlsx
@@ -1,15 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3718bcc9183a9f2/Documents/GitHub/sicss-project/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_07CDE0FBE0334D11FF2D4CA715EE07FB787816A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D73D4AAA-CAD3-49DF-9B76-9C7BDC2F327E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -802,8 +820,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,6 +884,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -912,7 +938,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -944,9 +970,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -978,6 +1022,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1153,14 +1215,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,181 +1286,181 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F2">
-        <v>271600</v>
+        <v>313160</v>
       </c>
       <c r="G2">
+        <v>38</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="K2">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="N2">
+        <v>-6.0869999999999997</v>
+      </c>
+      <c r="O2">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="P2">
+        <v>129.93100000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>0.08260000000000001</v>
-      </c>
-      <c r="J2">
-        <v>0.662</v>
-      </c>
-      <c r="K2">
-        <v>0.537</v>
-      </c>
-      <c r="L2">
-        <v>0.00155</v>
-      </c>
-      <c r="M2">
-        <v>0.0843</v>
-      </c>
-      <c r="N2">
-        <v>-9.428000000000001</v>
-      </c>
-      <c r="O2">
-        <v>0.06320000000000001</v>
-      </c>
-      <c r="P2">
-        <v>132.572</v>
-      </c>
-      <c r="Q2">
-        <v>0.777</v>
-      </c>
-      <c r="R2">
-        <v>4</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="F3">
-        <v>309213</v>
+        <v>202634</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>8</v>
       </c>
       <c r="I3">
-        <v>0.0451</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="J3">
-        <v>0.64</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="K3">
-        <v>0.753</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="L3">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="N3">
+        <v>-7.2030000000000003</v>
+      </c>
+      <c r="O3">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="P3">
+        <v>120.08499999999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4">
+        <v>296913</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="K4">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0.0356</v>
-      </c>
-      <c r="N3">
-        <v>-8.025</v>
-      </c>
-      <c r="O3">
-        <v>0.0462</v>
-      </c>
-      <c r="P3">
-        <v>108.511</v>
-      </c>
-      <c r="Q3">
-        <v>0.8070000000000001</v>
-      </c>
-      <c r="R3">
-        <v>4</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4">
-        <v>532908</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0.781</v>
-      </c>
-      <c r="J4">
-        <v>0.348</v>
-      </c>
-      <c r="K4">
-        <v>0.787</v>
-      </c>
-      <c r="L4">
-        <v>2.98E-05</v>
-      </c>
       <c r="M4">
-        <v>0.649</v>
+        <v>0.625</v>
       </c>
       <c r="N4">
-        <v>-7.112</v>
+        <v>-7.5259999999999998</v>
       </c>
       <c r="O4">
-        <v>0.113</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="P4">
-        <v>57.424</v>
+        <v>123.849</v>
       </c>
       <c r="Q4">
-        <v>0.35</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -1408,119 +1472,119 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F5">
-        <v>317560</v>
+        <v>309213</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.64</v>
+      </c>
+      <c r="K5">
+        <v>0.753</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3.56E-2</v>
+      </c>
+      <c r="N5">
+        <v>-8.0250000000000004</v>
+      </c>
+      <c r="O5">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="P5">
+        <v>108.511</v>
+      </c>
+      <c r="Q5">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6">
+        <v>384573</v>
+      </c>
+      <c r="G6">
+        <v>31</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>0.015</v>
-      </c>
-      <c r="J5">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="K5">
-        <v>0.737</v>
-      </c>
-      <c r="L5">
-        <v>0.00025</v>
-      </c>
-      <c r="M5">
-        <v>0.0599</v>
-      </c>
-      <c r="N5">
-        <v>-10.051</v>
-      </c>
-      <c r="O5">
-        <v>0.0443</v>
-      </c>
-      <c r="P5">
-        <v>110.969</v>
-      </c>
-      <c r="Q5">
-        <v>0.635</v>
-      </c>
-      <c r="R5">
-        <v>4</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6">
-        <v>306413</v>
-      </c>
-      <c r="G6">
-        <v>53</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="I6">
-        <v>0.203</v>
+        <v>0.745</v>
       </c>
       <c r="J6">
-        <v>0.723</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="K6">
-        <v>0.867</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="L6">
-        <v>0.00198</v>
+        <v>4.2200000000000003E-6</v>
       </c>
       <c r="M6">
-        <v>0.0597</v>
+        <v>0.108</v>
       </c>
       <c r="N6">
-        <v>-11.468</v>
+        <v>-11.702</v>
       </c>
       <c r="O6">
-        <v>0.0527</v>
+        <v>0.108</v>
       </c>
       <c r="P6">
-        <v>95.04300000000001</v>
+        <v>132.477</v>
       </c>
       <c r="Q6">
-        <v>0.921</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -1532,12 +1596,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>139</v>
@@ -1549,40 +1613,40 @@
         <v>214</v>
       </c>
       <c r="F7">
-        <v>433933</v>
+        <v>397360</v>
       </c>
       <c r="G7">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>0.573</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="J7">
-        <v>0.466</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="K7">
-        <v>0.884</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="L7">
-        <v>9.819999999999999E-06</v>
+        <v>2.63E-3</v>
       </c>
       <c r="M7">
-        <v>0.494</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="N7">
-        <v>-6.434</v>
+        <v>-5.4390000000000001</v>
       </c>
       <c r="O7">
-        <v>0.15</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="P7">
-        <v>85.34699999999999</v>
+        <v>126.086</v>
       </c>
       <c r="Q7">
-        <v>0.637</v>
+        <v>0.495</v>
       </c>
       <c r="R7">
         <v>4</v>
@@ -1594,7 +1658,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1620,31 +1684,31 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>0.643</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="J8">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="K8">
-        <v>0.722</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.149</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="N8">
-        <v>-10.739</v>
+        <v>-10.739000000000001</v>
       </c>
       <c r="O8">
-        <v>0.0445</v>
+        <v>4.4499999999999998E-2</v>
       </c>
       <c r="P8">
-        <v>97.989</v>
+        <v>97.989000000000004</v>
       </c>
       <c r="Q8">
-        <v>0.517</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="R8">
         <v>4</v>
@@ -1656,57 +1720,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="F9">
-        <v>320560</v>
+        <v>474653</v>
       </c>
       <c r="G9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>0.279</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="J9">
-        <v>0.742</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="K9">
-        <v>0.9399999999999999</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="L9">
-        <v>8.600000000000001E-06</v>
+        <v>2.2200000000000002E-3</v>
       </c>
       <c r="M9">
-        <v>0.0868</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="N9">
-        <v>-5.199</v>
+        <v>-9.4860000000000007</v>
       </c>
       <c r="O9">
-        <v>0.144</v>
+        <v>5.04E-2</v>
       </c>
       <c r="P9">
-        <v>128.035</v>
+        <v>122.056</v>
       </c>
       <c r="Q9">
-        <v>0.671</v>
+        <v>0.874</v>
       </c>
       <c r="R9">
         <v>4</v>
@@ -1718,57 +1782,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F10">
-        <v>332293</v>
+        <v>300573</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>0.357</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J10">
-        <v>0.46</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="K10">
-        <v>0.874</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="L10">
-        <v>0.0008050000000000001</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="M10">
-        <v>0.146</v>
+        <v>9.2899999999999996E-2</v>
       </c>
       <c r="N10">
-        <v>-8.898</v>
+        <v>-10.052</v>
       </c>
       <c r="O10">
-        <v>0.298</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="P10">
-        <v>127.471</v>
+        <v>102.015</v>
       </c>
       <c r="Q10">
-        <v>0.646</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="R10">
         <v>4</v>
@@ -1780,57 +1844,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="F11">
-        <v>397360</v>
+        <v>329640</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H11">
         <v>8</v>
       </c>
       <c r="I11">
-        <v>0.833</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="J11">
-        <v>0.524</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="K11">
-        <v>0.948</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="L11">
-        <v>0.00263</v>
+        <v>2.2599999999999999E-3</v>
       </c>
       <c r="M11">
-        <v>0.238</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="N11">
-        <v>-5.439</v>
+        <v>-8.3339999999999996</v>
       </c>
       <c r="O11">
-        <v>0.166</v>
+        <v>3.56E-2</v>
       </c>
       <c r="P11">
-        <v>126.086</v>
+        <v>84.546999999999997</v>
       </c>
       <c r="Q11">
-        <v>0.495</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="R11">
         <v>4</v>
@@ -1842,119 +1906,119 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="F12">
-        <v>384573</v>
+        <v>343373</v>
       </c>
       <c r="G12">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>0.745</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="J12">
-        <v>0.517</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="K12">
-        <v>0.469</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="L12">
-        <v>4.22E-06</v>
+        <v>3.4200000000000002E-4</v>
       </c>
       <c r="M12">
-        <v>0.108</v>
+        <v>4.9399999999999999E-2</v>
       </c>
       <c r="N12">
-        <v>-11.702</v>
+        <v>-7.423</v>
       </c>
       <c r="O12">
         <v>0.108</v>
       </c>
       <c r="P12">
-        <v>132.477</v>
+        <v>101.988</v>
       </c>
       <c r="Q12">
-        <v>0.555</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="R12">
         <v>4</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="F13">
-        <v>530013</v>
+        <v>206946</v>
       </c>
       <c r="G13">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13">
-        <v>0.336</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="J13">
-        <v>0.488</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="K13">
-        <v>0.772</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="L13">
-        <v>1.54E-05</v>
+        <v>1.9199999999999998E-6</v>
       </c>
       <c r="M13">
-        <v>0.454</v>
+        <v>0.109</v>
       </c>
       <c r="N13">
-        <v>-9.220000000000001</v>
+        <v>-5.4980000000000002</v>
       </c>
       <c r="O13">
-        <v>0.0594</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="P13">
-        <v>117.638</v>
+        <v>110.001</v>
       </c>
       <c r="Q13">
-        <v>0.617</v>
+        <v>0.874</v>
       </c>
       <c r="R13">
         <v>4</v>
@@ -1966,12 +2030,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
         <v>145</v>
@@ -1983,40 +2047,40 @@
         <v>220</v>
       </c>
       <c r="F14">
-        <v>364066</v>
+        <v>457280</v>
       </c>
       <c r="G14">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0.93</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="J14">
-        <v>0.53</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="K14">
-        <v>0.51</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="L14">
-        <v>0.189</v>
+        <v>1.43E-5</v>
       </c>
       <c r="M14">
-        <v>0.107</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="N14">
-        <v>-10.439</v>
+        <v>-7.5960000000000001</v>
       </c>
       <c r="O14">
-        <v>0.0307</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="P14">
-        <v>141.621</v>
+        <v>130.67500000000001</v>
       </c>
       <c r="Q14">
-        <v>0.491</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="R14">
         <v>4</v>
@@ -2028,119 +2092,119 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
         <v>184</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="F15">
-        <v>220382</v>
+        <v>315906</v>
       </c>
       <c r="G15">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.404</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="J15">
-        <v>0.718</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="K15">
-        <v>0.83</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="L15">
-        <v>2.5E-05</v>
+        <v>1.01E-5</v>
       </c>
       <c r="M15">
-        <v>0.124</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="N15">
-        <v>-5.488</v>
+        <v>-10.564</v>
       </c>
       <c r="O15">
-        <v>0.0505</v>
+        <v>0.106</v>
       </c>
       <c r="P15">
-        <v>105.012</v>
+        <v>95.037000000000006</v>
       </c>
       <c r="Q15">
-        <v>0.771</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="R15">
         <v>4</v>
       </c>
       <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16">
+        <v>275386</v>
+      </c>
+      <c r="G16">
+        <v>54</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="J16">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="K16">
+        <v>0.495</v>
+      </c>
+      <c r="L16">
         <v>0</v>
       </c>
-      <c r="T15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16">
-        <v>307600</v>
-      </c>
-      <c r="G16">
-        <v>34</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
-      <c r="I16">
-        <v>0.418</v>
-      </c>
-      <c r="J16">
-        <v>0.592</v>
-      </c>
-      <c r="K16">
-        <v>0.953</v>
-      </c>
-      <c r="L16">
-        <v>2.03E-05</v>
-      </c>
       <c r="M16">
-        <v>0.0452</v>
+        <v>6.2199999999999998E-2</v>
       </c>
       <c r="N16">
-        <v>-7.765</v>
+        <v>-10.129</v>
       </c>
       <c r="O16">
-        <v>0.0585</v>
+        <v>3.2599999999999997E-2</v>
       </c>
       <c r="P16">
-        <v>133.405</v>
+        <v>81.402000000000001</v>
       </c>
       <c r="Q16">
-        <v>0.482</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="R16">
         <v>4</v>
@@ -2152,122 +2216,122 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E17" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F17">
-        <v>191293</v>
+        <v>266720</v>
       </c>
       <c r="G17">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>0.873</v>
+      </c>
+      <c r="J17">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="K17">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="L17">
+        <v>7.6199999999999998E-4</v>
+      </c>
+      <c r="M17">
+        <v>0.111</v>
+      </c>
+      <c r="N17">
+        <v>-14.456</v>
+      </c>
+      <c r="O17">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="P17">
+        <v>150.16</v>
+      </c>
+      <c r="Q17">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>0.764</v>
-      </c>
-      <c r="J17">
-        <v>0.364</v>
-      </c>
-      <c r="K17">
-        <v>0.611</v>
-      </c>
-      <c r="L17">
-        <v>0.674</v>
-      </c>
-      <c r="M17">
-        <v>0.911</v>
-      </c>
-      <c r="N17">
-        <v>-8.315</v>
-      </c>
-      <c r="O17">
-        <v>0.0495</v>
-      </c>
-      <c r="P17">
-        <v>100.275</v>
-      </c>
-      <c r="Q17">
-        <v>0.824</v>
-      </c>
-      <c r="R17">
-        <v>4</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
       <c r="T17" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="F18">
-        <v>278026</v>
+        <v>392653</v>
       </c>
       <c r="G18">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18">
-        <v>0.73</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="J18">
-        <v>0.368</v>
+        <v>0.438</v>
       </c>
       <c r="K18">
-        <v>0.797</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>3.5700000000000001E-6</v>
       </c>
       <c r="M18">
-        <v>0.348</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="N18">
-        <v>-7.796</v>
+        <v>-8.4160000000000004</v>
       </c>
       <c r="O18">
-        <v>0.101</v>
+        <v>0.108</v>
       </c>
       <c r="P18">
-        <v>132.472</v>
+        <v>182.25700000000001</v>
       </c>
       <c r="Q18">
-        <v>0.775</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -2276,57 +2340,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F19">
-        <v>363906</v>
+        <v>422186</v>
       </c>
       <c r="G19">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0.07049999999999999</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="J19">
-        <v>0.759</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="K19">
-        <v>0.842</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="L19">
-        <v>3.12E-05</v>
+        <v>3.01E-5</v>
       </c>
       <c r="M19">
-        <v>0.417</v>
+        <v>0.156</v>
       </c>
       <c r="N19">
-        <v>-10.296</v>
+        <v>-8.4290000000000003</v>
       </c>
       <c r="O19">
-        <v>0.0567</v>
+        <v>7.51E-2</v>
       </c>
       <c r="P19">
-        <v>111.978</v>
+        <v>97.22</v>
       </c>
       <c r="Q19">
-        <v>0.832</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="R19">
         <v>4</v>
@@ -2338,57 +2402,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="F20">
-        <v>275386</v>
+        <v>271506</v>
       </c>
       <c r="G20">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>0.583</v>
+        <v>0.11</v>
       </c>
       <c r="J20">
-        <v>0.517</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="K20">
-        <v>0.495</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.4800000000000001E-5</v>
       </c>
       <c r="M20">
-        <v>0.0622</v>
+        <v>0.105</v>
       </c>
       <c r="N20">
-        <v>-10.129</v>
+        <v>-6.5110000000000001</v>
       </c>
       <c r="O20">
-        <v>0.0326</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="P20">
-        <v>81.402</v>
+        <v>142.947</v>
       </c>
       <c r="Q20">
-        <v>0.826</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="R20">
         <v>4</v>
@@ -2400,181 +2464,181 @@
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21">
+        <v>464886</v>
+      </c>
+      <c r="G21">
         <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E21" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21">
-        <v>266000</v>
-      </c>
-      <c r="G21">
-        <v>17</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21">
-        <v>0.744</v>
+        <v>0.6</v>
       </c>
       <c r="J21">
-        <v>0.532</v>
+        <v>0.626</v>
       </c>
       <c r="K21">
-        <v>0.522</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="L21">
-        <v>0.0425</v>
+        <v>1.3599999999999999E-6</v>
       </c>
       <c r="M21">
-        <v>0.453</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="N21">
-        <v>-12.094</v>
+        <v>-8.468</v>
       </c>
       <c r="O21">
-        <v>0.0452</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="P21">
-        <v>89.64100000000001</v>
+        <v>131.12</v>
       </c>
       <c r="Q21">
-        <v>0.909</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="R21">
         <v>4</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22">
+        <v>317560</v>
+      </c>
+      <c r="G22">
+        <v>58</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="K22">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="L22">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="M22">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="N22">
+        <v>-10.051</v>
+      </c>
+      <c r="O22">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="P22">
+        <v>110.96899999999999</v>
+      </c>
+      <c r="Q22">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
         <v>1</v>
       </c>
-      <c r="T21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E22" t="s">
-        <v>228</v>
-      </c>
-      <c r="F22">
-        <v>296913</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>11</v>
-      </c>
-      <c r="I22">
-        <v>0.231</v>
-      </c>
-      <c r="J22">
-        <v>0.671</v>
-      </c>
-      <c r="K22">
-        <v>0.869</v>
-      </c>
-      <c r="L22">
+      <c r="T22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23">
+        <v>532908</v>
+      </c>
+      <c r="G23">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0.625</v>
-      </c>
-      <c r="N22">
-        <v>-7.526</v>
-      </c>
-      <c r="O22">
-        <v>0.07049999999999999</v>
-      </c>
-      <c r="P22">
-        <v>123.849</v>
-      </c>
-      <c r="Q22">
-        <v>0.928</v>
-      </c>
-      <c r="R22">
-        <v>4</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23">
-        <v>257133</v>
-      </c>
-      <c r="G23">
-        <v>24</v>
-      </c>
       <c r="H23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0.849</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="J23">
-        <v>0.585</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="K23">
-        <v>0.465</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="L23">
-        <v>2.79E-05</v>
+        <v>2.9799999999999999E-5</v>
       </c>
       <c r="M23">
-        <v>0.0948</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="N23">
-        <v>-11.807</v>
+        <v>-7.1120000000000001</v>
       </c>
       <c r="O23">
-        <v>0.06909999999999999</v>
+        <v>0.113</v>
       </c>
       <c r="P23">
-        <v>117.417</v>
+        <v>57.423999999999999</v>
       </c>
       <c r="Q23">
-        <v>0.713</v>
+        <v>0.35</v>
       </c>
       <c r="R23">
         <v>4</v>
@@ -2586,57 +2650,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="E24" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="F24">
-        <v>346000</v>
+        <v>403562</v>
       </c>
       <c r="G24">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>0.125</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="J24">
-        <v>0.667</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="K24">
-        <v>0.753</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="L24">
-        <v>5.08E-06</v>
+        <v>1.8500000000000001E-6</v>
       </c>
       <c r="M24">
-        <v>0.28</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="N24">
-        <v>-9.302</v>
+        <v>-14.682</v>
       </c>
       <c r="O24">
-        <v>0.123</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="P24">
-        <v>90.989</v>
+        <v>112.405</v>
       </c>
       <c r="Q24">
-        <v>0.744</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="R24">
         <v>4</v>
@@ -2648,57 +2712,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
         <v>184</v>
       </c>
       <c r="E25" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F25">
-        <v>292853</v>
+        <v>271600</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I25">
-        <v>0.791</v>
+        <v>8.2600000000000007E-2</v>
       </c>
       <c r="J25">
-        <v>0.576</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="K25">
-        <v>0.47</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="L25">
-        <v>0.00218</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="M25">
-        <v>0.266</v>
+        <v>8.43E-2</v>
       </c>
       <c r="N25">
-        <v>-9.507</v>
+        <v>-9.4280000000000008</v>
       </c>
       <c r="O25">
-        <v>0.056</v>
+        <v>6.3200000000000006E-2</v>
       </c>
       <c r="P25">
-        <v>120.635</v>
+        <v>132.572</v>
       </c>
       <c r="Q25">
-        <v>0.713</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="R25">
         <v>4</v>
@@ -2710,181 +2774,181 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="F26">
-        <v>300573</v>
+        <v>219453</v>
       </c>
       <c r="G26">
+        <v>45</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="K26">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="N26">
+        <v>-3.28</v>
+      </c>
+      <c r="O26">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="P26">
+        <v>135.04300000000001</v>
+      </c>
+      <c r="Q26">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" t="s">
+        <v>254</v>
+      </c>
+      <c r="F27">
+        <v>405600</v>
+      </c>
+      <c r="G27">
+        <v>37</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="J27">
+        <v>0.626</v>
+      </c>
+      <c r="K27">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="N27">
+        <v>-8.8650000000000002</v>
+      </c>
+      <c r="O27">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="P27">
+        <v>100.20099999999999</v>
+      </c>
+      <c r="Q27">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="H26">
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" t="s">
+        <v>224</v>
+      </c>
+      <c r="F28">
+        <v>278026</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+      <c r="H28">
         <v>10</v>
       </c>
-      <c r="I26">
-        <v>0.14</v>
-      </c>
-      <c r="J26">
-        <v>0.731</v>
-      </c>
-      <c r="K26">
-        <v>0.804</v>
-      </c>
-      <c r="L26">
-        <v>0.0169</v>
-      </c>
-      <c r="M26">
-        <v>0.0929</v>
-      </c>
-      <c r="N26">
-        <v>-10.052</v>
-      </c>
-      <c r="O26">
-        <v>0.065</v>
-      </c>
-      <c r="P26">
-        <v>102.015</v>
-      </c>
-      <c r="Q26">
-        <v>0.856</v>
-      </c>
-      <c r="R26">
-        <v>4</v>
-      </c>
-      <c r="S26">
+      <c r="I28">
+        <v>0.73</v>
+      </c>
+      <c r="J28">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="K28">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="L28">
         <v>0</v>
       </c>
-      <c r="T26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" t="s">
-        <v>233</v>
-      </c>
-      <c r="F27">
-        <v>437240</v>
-      </c>
-      <c r="G27">
-        <v>31</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0.0612</v>
-      </c>
-      <c r="J27">
-        <v>0.72</v>
-      </c>
-      <c r="K27">
-        <v>0.783</v>
-      </c>
-      <c r="L27">
-        <v>0.00174</v>
-      </c>
-      <c r="M27">
-        <v>0.329</v>
-      </c>
-      <c r="N27">
-        <v>-9.266999999999999</v>
-      </c>
-      <c r="O27">
-        <v>0.131</v>
-      </c>
-      <c r="P27">
-        <v>90.66</v>
-      </c>
-      <c r="Q27">
-        <v>0.537</v>
-      </c>
-      <c r="R27">
-        <v>4</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" t="s">
-        <v>234</v>
-      </c>
-      <c r="F28">
-        <v>202634</v>
-      </c>
-      <c r="G28">
-        <v>47</v>
-      </c>
-      <c r="H28">
-        <v>8</v>
-      </c>
-      <c r="I28">
-        <v>0.736</v>
-      </c>
-      <c r="J28">
-        <v>0.541</v>
-      </c>
-      <c r="K28">
-        <v>0.535</v>
-      </c>
-      <c r="L28">
-        <v>0.0233</v>
-      </c>
       <c r="M28">
-        <v>0.422</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="N28">
-        <v>-7.203</v>
+        <v>-7.7960000000000003</v>
       </c>
       <c r="O28">
-        <v>0.0322</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="P28">
-        <v>120.085</v>
+        <v>132.47200000000001</v>
       </c>
       <c r="Q28">
-        <v>0.381</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="R28">
         <v>4</v>
@@ -2896,181 +2960,181 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E29" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F29">
-        <v>464886</v>
+        <v>318706</v>
       </c>
       <c r="G29">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="J29">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="K29">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="L29">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="M29">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="N29">
+        <v>-9.7919999999999998</v>
+      </c>
+      <c r="O29">
+        <v>0.107</v>
+      </c>
+      <c r="P29">
+        <v>189.08500000000001</v>
+      </c>
+      <c r="Q29">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30">
+        <v>288647</v>
+      </c>
+      <c r="G30">
+        <v>62</v>
+      </c>
+      <c r="H30">
         <v>5</v>
       </c>
-      <c r="I29">
-        <v>0.6</v>
-      </c>
-      <c r="J29">
-        <v>0.626</v>
-      </c>
-      <c r="K29">
-        <v>0.732</v>
-      </c>
-      <c r="L29">
-        <v>1.36E-06</v>
-      </c>
-      <c r="M29">
-        <v>0.766</v>
-      </c>
-      <c r="N29">
-        <v>-8.468</v>
-      </c>
-      <c r="O29">
-        <v>0.237</v>
-      </c>
-      <c r="P29">
-        <v>131.12</v>
-      </c>
-      <c r="Q29">
-        <v>0.644</v>
-      </c>
-      <c r="R29">
-        <v>4</v>
-      </c>
-      <c r="S29">
+      <c r="I30">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="J30">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="K30">
+        <v>0.622</v>
+      </c>
+      <c r="L30">
+        <v>2.3199999999999998E-6</v>
+      </c>
+      <c r="M30">
+        <v>0.122</v>
+      </c>
+      <c r="N30">
+        <v>-7.9880000000000004</v>
+      </c>
+      <c r="O30">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="P30">
+        <v>100.005</v>
+      </c>
+      <c r="Q30">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
         <v>0</v>
       </c>
-      <c r="T29" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
+      <c r="T30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>48</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>105</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>135</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>185</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>210</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>307080</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>43</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>0.157</v>
       </c>
-      <c r="J30">
-        <v>0.536</v>
-      </c>
-      <c r="K30">
-        <v>0.517</v>
-      </c>
-      <c r="L30">
+      <c r="J31">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="K31">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="L31">
         <v>0</v>
       </c>
-      <c r="M30">
+      <c r="M31">
         <v>0.188</v>
       </c>
-      <c r="N30">
+      <c r="N31">
         <v>-13.224</v>
       </c>
-      <c r="O30">
-        <v>0.0858</v>
-      </c>
-      <c r="P30">
-        <v>118.534</v>
-      </c>
-      <c r="Q30">
-        <v>0.8169999999999999</v>
-      </c>
-      <c r="R30">
-        <v>4</v>
-      </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
-      <c r="T30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" t="s">
-        <v>236</v>
-      </c>
-      <c r="F31">
-        <v>292240</v>
-      </c>
-      <c r="G31">
-        <v>52</v>
-      </c>
-      <c r="H31">
-        <v>11</v>
-      </c>
-      <c r="I31">
-        <v>0.0276</v>
-      </c>
-      <c r="J31">
-        <v>0.572</v>
-      </c>
-      <c r="K31">
-        <v>0.866</v>
-      </c>
-      <c r="L31">
-        <v>1.86E-06</v>
-      </c>
-      <c r="M31">
-        <v>0.09909999999999999</v>
-      </c>
-      <c r="N31">
-        <v>-3.976</v>
-      </c>
       <c r="O31">
-        <v>0.0368</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="P31">
-        <v>100.028</v>
+        <v>118.53400000000001</v>
       </c>
       <c r="Q31">
-        <v>0.183</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="R31">
         <v>4</v>
@@ -3082,119 +3146,119 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F32">
-        <v>457280</v>
+        <v>220382</v>
       </c>
       <c r="G32">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>0.612</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="J32">
-        <v>0.423</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="K32">
-        <v>0.903</v>
+        <v>0.83</v>
       </c>
       <c r="L32">
-        <v>1.43E-05</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="M32">
-        <v>0.923</v>
+        <v>0.124</v>
       </c>
       <c r="N32">
-        <v>-7.596</v>
+        <v>-5.4880000000000004</v>
       </c>
       <c r="O32">
-        <v>0.149</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="P32">
-        <v>130.675</v>
+        <v>105.012</v>
       </c>
       <c r="Q32">
-        <v>0.774</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="R32">
         <v>4</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F33">
-        <v>266720</v>
+        <v>292240</v>
       </c>
       <c r="G33">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I33">
-        <v>0.873</v>
+        <v>2.76E-2</v>
       </c>
       <c r="J33">
-        <v>0.526</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="K33">
-        <v>0.278</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="L33">
-        <v>0.000762</v>
+        <v>1.86E-6</v>
       </c>
       <c r="M33">
-        <v>0.111</v>
+        <v>9.9099999999999994E-2</v>
       </c>
       <c r="N33">
-        <v>-14.456</v>
+        <v>-3.976</v>
       </c>
       <c r="O33">
-        <v>0.0392</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="P33">
-        <v>150.16</v>
+        <v>100.02800000000001</v>
       </c>
       <c r="Q33">
-        <v>0.649</v>
+        <v>0.183</v>
       </c>
       <c r="R33">
         <v>4</v>
@@ -3206,57 +3270,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E34" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F34">
-        <v>474357</v>
+        <v>346720</v>
       </c>
       <c r="G34">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>0.27</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J34">
-        <v>0.755</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="K34">
-        <v>0.699</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="L34">
-        <v>1.82E-05</v>
+        <v>2.8400000000000001E-3</v>
       </c>
       <c r="M34">
-        <v>0.042</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="N34">
-        <v>-11.153</v>
+        <v>-6.4219999999999997</v>
       </c>
       <c r="O34">
-        <v>0.0598</v>
+        <v>5.16E-2</v>
       </c>
       <c r="P34">
-        <v>122.544</v>
+        <v>105.968</v>
       </c>
       <c r="Q34">
-        <v>0.621</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="R34">
         <v>4</v>
@@ -3268,57 +3332,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E35" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F35">
-        <v>329640</v>
+        <v>270840</v>
       </c>
       <c r="G35">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H35">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I35">
-        <v>0.865</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="J35">
-        <v>0.477</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="K35">
-        <v>0.636</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="L35">
-        <v>0.00226</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0.208</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="N35">
-        <v>-8.334</v>
+        <v>-12.347</v>
       </c>
       <c r="O35">
-        <v>0.0356</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="P35">
-        <v>84.547</v>
+        <v>128.71700000000001</v>
       </c>
       <c r="Q35">
-        <v>0.707</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="R35">
         <v>4</v>
@@ -3330,69 +3394,69 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F36">
-        <v>397453</v>
+        <v>530013</v>
       </c>
       <c r="G36">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="J36">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="K36">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="L36">
+        <v>1.5400000000000002E-5</v>
+      </c>
+      <c r="M36">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="N36">
+        <v>-9.2200000000000006</v>
+      </c>
+      <c r="O36">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="P36">
+        <v>117.63800000000001</v>
+      </c>
+      <c r="Q36">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+      <c r="S36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>0.0659</v>
-      </c>
-      <c r="J36">
-        <v>0.794</v>
-      </c>
-      <c r="K36">
-        <v>0.962</v>
-      </c>
-      <c r="L36">
-        <v>7.890000000000001E-06</v>
-      </c>
-      <c r="M36">
-        <v>0.119</v>
-      </c>
-      <c r="N36">
-        <v>-9.801</v>
-      </c>
-      <c r="O36">
-        <v>0.07190000000000001</v>
-      </c>
-      <c r="P36">
-        <v>122.926</v>
-      </c>
-      <c r="Q36">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="R36">
-        <v>4</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
       <c r="T36" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -3418,25 +3482,25 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0.0369</v>
+        <v>3.6900000000000002E-2</v>
       </c>
       <c r="J37">
-        <v>0.8159999999999999</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="K37">
-        <v>0.756</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="L37">
-        <v>4.7E-06</v>
+        <v>4.6999999999999999E-6</v>
       </c>
       <c r="M37">
-        <v>0.422</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="N37">
         <v>-11.462</v>
       </c>
       <c r="O37">
-        <v>0.0818</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="P37">
         <v>103.033</v>
@@ -3454,57 +3518,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E38" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="F38">
-        <v>266466</v>
+        <v>307600</v>
       </c>
       <c r="G38">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I38">
-        <v>0.882</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="J38">
-        <v>0.409</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="K38">
-        <v>0.825</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="L38">
-        <v>0.00179</v>
+        <v>2.0299999999999999E-5</v>
       </c>
       <c r="M38">
-        <v>0.207</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="N38">
-        <v>-9.606</v>
+        <v>-7.7649999999999997</v>
       </c>
       <c r="O38">
-        <v>0.0743</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="P38">
-        <v>137.967</v>
+        <v>133.405</v>
       </c>
       <c r="Q38">
-        <v>0.576</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="R38">
         <v>4</v>
@@ -3516,57 +3580,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F39">
-        <v>346720</v>
+        <v>266000</v>
       </c>
       <c r="G39">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H39">
         <v>5</v>
       </c>
       <c r="I39">
-        <v>0.118</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="J39">
-        <v>0.774</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="K39">
-        <v>0.9340000000000001</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="L39">
-        <v>0.00284</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="M39">
-        <v>0.0897</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="N39">
-        <v>-6.422</v>
+        <v>-12.093999999999999</v>
       </c>
       <c r="O39">
-        <v>0.0516</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="P39">
-        <v>105.968</v>
+        <v>89.641000000000005</v>
       </c>
       <c r="Q39">
-        <v>0.882</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="R39">
         <v>4</v>
@@ -3578,181 +3642,181 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="F40">
-        <v>341506</v>
+        <v>363906</v>
       </c>
       <c r="G40">
+        <v>31</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="J40">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="K40">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="L40">
+        <v>3.1199999999999999E-5</v>
+      </c>
+      <c r="M40">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="N40">
+        <v>-10.295999999999999</v>
+      </c>
+      <c r="O40">
+        <v>5.67E-2</v>
+      </c>
+      <c r="P40">
+        <v>111.97799999999999</v>
+      </c>
+      <c r="Q40">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="R40">
+        <v>4</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="H40">
-        <v>7</v>
-      </c>
-      <c r="I40">
-        <v>0.0698</v>
-      </c>
-      <c r="J40">
-        <v>0.763</v>
-      </c>
-      <c r="K40">
-        <v>0.5629999999999999</v>
-      </c>
-      <c r="L40">
-        <v>3.18E-06</v>
-      </c>
-      <c r="M40">
-        <v>0.2</v>
-      </c>
-      <c r="N40">
-        <v>-9.772</v>
-      </c>
-      <c r="O40">
-        <v>0.148</v>
-      </c>
-      <c r="P40">
-        <v>94.91800000000001</v>
-      </c>
-      <c r="Q40">
-        <v>0.725</v>
-      </c>
-      <c r="R40">
-        <v>4</v>
-      </c>
-      <c r="S40">
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41">
+        <v>332293</v>
+      </c>
+      <c r="G41">
+        <v>34</v>
+      </c>
+      <c r="H41">
+        <v>11</v>
+      </c>
+      <c r="I41">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="J41">
+        <v>0.46</v>
+      </c>
+      <c r="K41">
+        <v>0.874</v>
+      </c>
+      <c r="L41">
+        <v>8.0500000000000005E-4</v>
+      </c>
+      <c r="M41">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="N41">
+        <v>-8.8979999999999997</v>
+      </c>
+      <c r="O41">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="P41">
+        <v>127.471</v>
+      </c>
+      <c r="Q41">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="S41">
         <v>0</v>
       </c>
-      <c r="T40" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F41">
-        <v>422186</v>
-      </c>
-      <c r="G41">
-        <v>47</v>
-      </c>
-      <c r="H41">
+      <c r="T41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" t="s">
+        <v>233</v>
+      </c>
+      <c r="F42">
+        <v>437240</v>
+      </c>
+      <c r="G42">
+        <v>31</v>
+      </c>
+      <c r="H42">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>0.713</v>
-      </c>
-      <c r="J41">
-        <v>0.529</v>
-      </c>
-      <c r="K41">
-        <v>0.836</v>
-      </c>
-      <c r="L41">
-        <v>3.01E-05</v>
-      </c>
-      <c r="M41">
-        <v>0.156</v>
-      </c>
-      <c r="N41">
-        <v>-8.429</v>
-      </c>
-      <c r="O41">
-        <v>0.0751</v>
-      </c>
-      <c r="P41">
-        <v>97.22</v>
-      </c>
-      <c r="Q41">
-        <v>0.652</v>
-      </c>
-      <c r="R41">
-        <v>4</v>
-      </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
-      <c r="T41" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" t="s">
-        <v>200</v>
-      </c>
-      <c r="E42" t="s">
-        <v>225</v>
-      </c>
-      <c r="F42">
-        <v>313160</v>
-      </c>
-      <c r="G42">
-        <v>38</v>
-      </c>
-      <c r="H42">
-        <v>5</v>
-      </c>
       <c r="I42">
-        <v>0.548</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="J42">
-        <v>0.806</v>
+        <v>0.72</v>
       </c>
       <c r="K42">
-        <v>0.968</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1.74E-3</v>
       </c>
       <c r="M42">
-        <v>0.06569999999999999</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="N42">
-        <v>-6.087</v>
+        <v>-9.2669999999999995</v>
       </c>
       <c r="O42">
-        <v>0.09520000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="P42">
-        <v>129.931</v>
+        <v>90.66</v>
       </c>
       <c r="Q42">
-        <v>0.788</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="R42">
         <v>4</v>
@@ -3764,57 +3828,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F43">
-        <v>343373</v>
+        <v>321240</v>
       </c>
       <c r="G43">
         <v>46</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>0.293</v>
+        <v>3.8399999999999997E-2</v>
       </c>
       <c r="J43">
-        <v>0.672</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="K43">
-        <v>0.856</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="L43">
-        <v>0.000342</v>
+        <v>7.2700000000000005E-5</v>
       </c>
       <c r="M43">
-        <v>0.0494</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="N43">
-        <v>-7.423</v>
+        <v>-5.8029999999999999</v>
       </c>
       <c r="O43">
-        <v>0.108</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="P43">
-        <v>101.988</v>
+        <v>104.971</v>
       </c>
       <c r="Q43">
-        <v>0.723</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="R43">
         <v>4</v>
@@ -3826,119 +3890,119 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E44" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F44">
-        <v>321240</v>
+        <v>248775</v>
       </c>
       <c r="G44">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0.0384</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="J44">
-        <v>0.805</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="K44">
-        <v>0.918</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="L44">
-        <v>7.270000000000001E-05</v>
+        <v>1.45E-5</v>
       </c>
       <c r="M44">
-        <v>0.555</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="N44">
-        <v>-5.803</v>
+        <v>-3.907</v>
       </c>
       <c r="O44">
-        <v>0.0853</v>
+        <v>6.3E-2</v>
       </c>
       <c r="P44">
-        <v>104.971</v>
+        <v>130.13300000000001</v>
       </c>
       <c r="Q44">
-        <v>0.648</v>
+        <v>0.66</v>
       </c>
       <c r="R44">
         <v>4</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D45" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E45" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F45">
-        <v>271506</v>
+        <v>346000</v>
       </c>
       <c r="G45">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I45">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="J45">
-        <v>0.6889999999999999</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="K45">
-        <v>0.899</v>
+        <v>0.753</v>
       </c>
       <c r="L45">
-        <v>1.48E-05</v>
+        <v>5.0799999999999996E-6</v>
       </c>
       <c r="M45">
-        <v>0.105</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N45">
-        <v>-6.511</v>
+        <v>-9.3019999999999996</v>
       </c>
       <c r="O45">
-        <v>0.0575</v>
+        <v>0.123</v>
       </c>
       <c r="P45">
-        <v>142.947</v>
+        <v>90.989000000000004</v>
       </c>
       <c r="Q45">
-        <v>0.806</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="R45">
         <v>4</v>
@@ -3950,57 +4014,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E46" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F46">
-        <v>273551</v>
+        <v>266466</v>
       </c>
       <c r="G46">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I46">
-        <v>0.615</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="J46">
-        <v>0.82</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="K46">
-        <v>0.517</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="L46">
-        <v>0.00081</v>
+        <v>1.7899999999999999E-3</v>
       </c>
       <c r="M46">
-        <v>0.494</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="N46">
-        <v>-10.995</v>
+        <v>-9.6059999999999999</v>
       </c>
       <c r="O46">
-        <v>0.0425</v>
+        <v>7.4300000000000005E-2</v>
       </c>
       <c r="P46">
-        <v>131.212</v>
+        <v>137.96700000000001</v>
       </c>
       <c r="Q46">
-        <v>0.961</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="R46">
         <v>4</v>
@@ -4012,57 +4076,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E47" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="F47">
-        <v>206946</v>
+        <v>364066</v>
       </c>
       <c r="G47">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>0.175</v>
+        <v>0.93</v>
       </c>
       <c r="J47">
-        <v>0.833</v>
+        <v>0.53</v>
       </c>
       <c r="K47">
-        <v>0.917</v>
+        <v>0.51</v>
       </c>
       <c r="L47">
-        <v>1.92E-06</v>
+        <v>0.189</v>
       </c>
       <c r="M47">
-        <v>0.109</v>
+        <v>0.107</v>
       </c>
       <c r="N47">
-        <v>-5.498</v>
+        <v>-10.439</v>
       </c>
       <c r="O47">
-        <v>0.0597</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="P47">
-        <v>110.001</v>
+        <v>141.62100000000001</v>
       </c>
       <c r="Q47">
-        <v>0.874</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="R47">
         <v>4</v>
@@ -4074,210 +4138,210 @@
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E48" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F48">
-        <v>288647</v>
+        <v>474357</v>
       </c>
       <c r="G48">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I48">
-        <v>0.138</v>
+        <v>0.27</v>
       </c>
       <c r="J48">
-        <v>0.678</v>
+        <v>0.755</v>
       </c>
       <c r="K48">
-        <v>0.622</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="L48">
-        <v>2.32E-06</v>
+        <v>1.8199999999999999E-5</v>
       </c>
       <c r="M48">
-        <v>0.122</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="N48">
-        <v>-7.988</v>
+        <v>-11.153</v>
       </c>
       <c r="O48">
-        <v>0.06950000000000001</v>
+        <v>5.9799999999999999E-2</v>
       </c>
       <c r="P48">
-        <v>100.005</v>
+        <v>122.544</v>
       </c>
       <c r="Q48">
-        <v>0.535</v>
+        <v>0.621</v>
       </c>
       <c r="R48">
         <v>4</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E49" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F49">
-        <v>248775</v>
+        <v>397453</v>
       </c>
       <c r="G49">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>0.407</v>
+        <v>6.59E-2</v>
       </c>
       <c r="J49">
-        <v>0.666</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="K49">
-        <v>0.988</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="L49">
-        <v>1.45E-05</v>
+        <v>7.8900000000000007E-6</v>
       </c>
       <c r="M49">
-        <v>0.0376</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="N49">
-        <v>-3.907</v>
+        <v>-9.8010000000000002</v>
       </c>
       <c r="O49">
-        <v>0.063</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="P49">
-        <v>130.133</v>
+        <v>122.926</v>
       </c>
       <c r="Q49">
-        <v>0.66</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="R49">
         <v>4</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E50" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="F50">
-        <v>318706</v>
+        <v>257133</v>
       </c>
       <c r="G50">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I50">
-        <v>0.669</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="J50">
-        <v>0.424</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="K50">
-        <v>0.769</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="L50">
-        <v>0.00217</v>
+        <v>2.7900000000000001E-5</v>
       </c>
       <c r="M50">
-        <v>0.336</v>
+        <v>9.4799999999999995E-2</v>
       </c>
       <c r="N50">
-        <v>-9.792</v>
+        <v>-11.807</v>
       </c>
       <c r="O50">
-        <v>0.107</v>
+        <v>6.9099999999999995E-2</v>
       </c>
       <c r="P50">
-        <v>189.085</v>
+        <v>117.417</v>
       </c>
       <c r="Q50">
-        <v>0.964</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="R50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D51" t="s">
         <v>187</v>
       </c>
       <c r="E51" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="F51">
-        <v>313413</v>
+        <v>433933</v>
       </c>
       <c r="G51">
         <v>43</v>
@@ -4286,93 +4350,93 @@
         <v>5</v>
       </c>
       <c r="I51">
-        <v>0.646</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="J51">
-        <v>0.349</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="K51">
-        <v>0.744</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="L51">
-        <v>5.95E-06</v>
+        <v>9.8199999999999992E-6</v>
       </c>
       <c r="M51">
-        <v>0.262</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="N51">
-        <v>-8.625</v>
+        <v>-6.4340000000000002</v>
       </c>
       <c r="O51">
-        <v>0.0468</v>
+        <v>0.15</v>
       </c>
       <c r="P51">
-        <v>93.584</v>
+        <v>85.346999999999994</v>
       </c>
       <c r="Q51">
-        <v>0.749</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="R51">
         <v>4</v>
       </c>
       <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" t="s">
+        <v>223</v>
+      </c>
+      <c r="F52">
+        <v>191293</v>
+      </c>
+      <c r="G52">
+        <v>39</v>
+      </c>
+      <c r="H52">
         <v>1</v>
       </c>
-      <c r="T51" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
-      <c r="A52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" t="s">
-        <v>194</v>
-      </c>
-      <c r="E52" t="s">
-        <v>253</v>
-      </c>
-      <c r="F52">
-        <v>474653</v>
-      </c>
-      <c r="G52">
-        <v>57</v>
-      </c>
-      <c r="H52">
-        <v>8</v>
-      </c>
       <c r="I52">
-        <v>0.136</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="J52">
-        <v>0.613</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="K52">
-        <v>0.696</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="L52">
-        <v>0.00222</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="M52">
-        <v>0.053</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="N52">
-        <v>-9.486000000000001</v>
+        <v>-8.3149999999999995</v>
       </c>
       <c r="O52">
-        <v>0.0504</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="P52">
-        <v>122.056</v>
+        <v>100.27500000000001</v>
       </c>
       <c r="Q52">
-        <v>0.874</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="R52">
         <v>4</v>
@@ -4384,57 +4448,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="D53" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E53" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="F53">
-        <v>405600</v>
+        <v>320560</v>
       </c>
       <c r="G53">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I53">
-        <v>0.761</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="J53">
-        <v>0.626</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="K53">
-        <v>0.538</v>
+        <v>0.94</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>8.6000000000000007E-6</v>
       </c>
       <c r="M53">
-        <v>0.606</v>
+        <v>8.6800000000000002E-2</v>
       </c>
       <c r="N53">
-        <v>-8.865</v>
+        <v>-5.1989999999999998</v>
       </c>
       <c r="O53">
-        <v>0.0531</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="P53">
-        <v>100.201</v>
+        <v>128.035</v>
       </c>
       <c r="Q53">
-        <v>0.925</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="R53">
         <v>4</v>
@@ -4446,57 +4510,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E54" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F54">
-        <v>270840</v>
+        <v>341506</v>
       </c>
       <c r="G54">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H54">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I54">
-        <v>0.531</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="J54">
-        <v>0.695</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="K54">
-        <v>0.653</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>3.18E-6</v>
       </c>
       <c r="M54">
-        <v>0.0476</v>
+        <v>0.2</v>
       </c>
       <c r="N54">
-        <v>-12.347</v>
+        <v>-9.7720000000000002</v>
       </c>
       <c r="O54">
-        <v>0.0408</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="P54">
-        <v>128.717</v>
+        <v>94.918000000000006</v>
       </c>
       <c r="Q54">
-        <v>0.9370000000000001</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="R54">
         <v>4</v>
@@ -4508,57 +4572,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
         <v>184</v>
       </c>
       <c r="E55" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="F55">
-        <v>315906</v>
+        <v>306413</v>
       </c>
       <c r="G55">
         <v>53</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0.0342</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="J55">
-        <v>0.804</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="K55">
-        <v>0.649</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="L55">
-        <v>1.01E-05</v>
+        <v>1.98E-3</v>
       </c>
       <c r="M55">
-        <v>0.0319</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="N55">
-        <v>-10.564</v>
+        <v>-11.468</v>
       </c>
       <c r="O55">
-        <v>0.106</v>
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="P55">
-        <v>95.03700000000001</v>
+        <v>95.043000000000006</v>
       </c>
       <c r="Q55">
-        <v>0.8169999999999999</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="R55">
         <v>4</v>
@@ -4570,60 +4634,60 @@
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D56" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E56" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F56">
-        <v>392653</v>
+        <v>273551</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="H56">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I56">
-        <v>0.916</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="J56">
-        <v>0.438</v>
+        <v>0.82</v>
       </c>
       <c r="K56">
-        <v>0.591</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="L56">
-        <v>3.57E-06</v>
+        <v>8.0999999999999996E-4</v>
       </c>
       <c r="M56">
-        <v>0.276</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="N56">
-        <v>-8.416</v>
+        <v>-10.994999999999999</v>
       </c>
       <c r="O56">
-        <v>0.108</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="P56">
-        <v>182.257</v>
+        <v>131.21199999999999</v>
       </c>
       <c r="Q56">
-        <v>0.819</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="R56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -4632,119 +4696,119 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="E57" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="F57">
-        <v>219453</v>
+        <v>292853</v>
       </c>
       <c r="G57">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="J57">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="K57">
+        <v>0.47</v>
+      </c>
+      <c r="L57">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="M57">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="N57">
+        <v>-9.5069999999999997</v>
+      </c>
+      <c r="O57">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="P57">
+        <v>120.63500000000001</v>
+      </c>
+      <c r="Q57">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="R57">
+        <v>4</v>
+      </c>
+      <c r="S57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>0.046</v>
-      </c>
-      <c r="J57">
-        <v>0.777</v>
-      </c>
-      <c r="K57">
-        <v>0.963</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0.0926</v>
-      </c>
-      <c r="N57">
-        <v>-3.28</v>
-      </c>
-      <c r="O57">
-        <v>0.0888</v>
-      </c>
-      <c r="P57">
-        <v>135.043</v>
-      </c>
-      <c r="Q57">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="R57">
-        <v>4</v>
-      </c>
-      <c r="S57">
-        <v>1</v>
-      </c>
       <c r="T57" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E58" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F58">
-        <v>403562</v>
+        <v>313413</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="H58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>0.657</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="J58">
-        <v>0.586</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="K58">
-        <v>0.587</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="L58">
-        <v>1.85E-06</v>
+        <v>5.9499999999999998E-6</v>
       </c>
       <c r="M58">
-        <v>0.422</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="N58">
-        <v>-14.682</v>
+        <v>-8.625</v>
       </c>
       <c r="O58">
-        <v>0.286</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="P58">
-        <v>112.405</v>
+        <v>93.584000000000003</v>
       </c>
       <c r="Q58">
-        <v>0.599</v>
+        <v>0.749</v>
       </c>
       <c r="R58">
         <v>4</v>
@@ -4757,6 +4821,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T59">
+    <sortCondition ref="B1:B59"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>